--- a/OrangeHRM/OrangeHRM TestExecution AND BugReport.xlsx
+++ b/OrangeHRM/OrangeHRM TestExecution AND BugReport.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF57C08C-F7E5-4037-9E4F-128984CBFBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28A3548-D407-4498-B24C-B55E9F142A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Execution" sheetId="2" r:id="rId1"/>
@@ -21,15 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="129">
-  <si>
-    <t>Req#ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="135">
   <si>
     <t>Scenario</t>
-  </si>
-  <si>
-    <t>TC#ID</t>
   </si>
   <si>
     <t>ModuleName</t>
@@ -129,9 +123,6 @@
 ESS user should see Myinfo page after login is successfull.</t>
   </si>
   <si>
-    <t>TC_MyInfo_002</t>
-  </si>
-  <si>
     <t>Verify login with valid ESS username and in-valid password.</t>
   </si>
   <si>
@@ -146,9 +137,6 @@
     <t>Invalid credentials</t>
   </si>
   <si>
-    <t>TC_MyInfo_003</t>
-  </si>
-  <si>
     <t>Verify login with in-valid ESS username and valid password.</t>
   </si>
   <si>
@@ -160,9 +148,6 @@
 </t>
   </si>
   <si>
-    <t>TC_MyInfo_004</t>
-  </si>
-  <si>
     <t>Verify login with in-valid ESS username and in-valid password.</t>
   </si>
   <si>
@@ -174,9 +159,6 @@
 </t>
   </si>
   <si>
-    <t>TC_MyInfo_005</t>
-  </si>
-  <si>
     <t>ESS user can view Personal details</t>
   </si>
   <si>
@@ -192,9 +174,6 @@
   </si>
   <si>
     <t>User should able to view Personal Details</t>
-  </si>
-  <si>
-    <t>TC_MyInfo_006</t>
   </si>
   <si>
     <t>ESS user can edit Personal details</t>
@@ -211,9 +190,6 @@
   </si>
   <si>
     <t>User should able to edit and save details.</t>
-  </si>
-  <si>
-    <t>TC_MyInfo_007</t>
   </si>
   <si>
     <t>ESS user cannot edit restricted fileds in Personal details</t>
@@ -259,9 +235,6 @@
     <t>Images</t>
   </si>
   <si>
-    <t>TC_MyInfo_009</t>
-  </si>
-  <si>
     <t>3.1.3</t>
   </si>
   <si>
@@ -277,9 +250,6 @@
   </si>
   <si>
     <t>User should able to view Contact details</t>
-  </si>
-  <si>
-    <t>TC_MyInfo_010</t>
   </si>
   <si>
     <t>ESS user can edit Contact Details</t>
@@ -297,9 +267,6 @@
   </si>
   <si>
     <t>User should able to edit and save contact details.</t>
-  </si>
-  <si>
-    <t>TC_MyInfo_011</t>
   </si>
   <si>
     <t>3.1.4</t>
@@ -328,9 +295,6 @@
 Details should be appeared under Emergency Contacts table.</t>
   </si>
   <si>
-    <t>TC_MyInfo_012</t>
-  </si>
-  <si>
     <t>ESS user can add multiple Emergency Contact</t>
   </si>
   <si>
@@ -342,9 +306,6 @@
   <si>
     <t>Successfully saved
 Multiple Emergency Contact Details should be appeared under Emergency Contacts table.</t>
-  </si>
-  <si>
-    <t>TC_MyInfo_013</t>
   </si>
   <si>
     <t>ESS user can delete Emergency Contacts</t>
@@ -362,9 +323,6 @@
   <si>
     <t>Successfully Deleted
 Entries should disappear from  Emergency Contacts table.</t>
-  </si>
-  <si>
-    <t>TC_MyInfo_014</t>
   </si>
   <si>
     <t>3.1.5</t>
@@ -392,23 +350,14 @@
 Depandant Details should be appeared under Assigned Dependants table.</t>
   </si>
   <si>
-    <t>TC_MyInfo_015</t>
-  </si>
-  <si>
     <t>ESS user can add multiple Dependants</t>
   </si>
   <si>
     <t>Verify ESS user able to add multiple Dependants</t>
-  </si>
-  <si>
-    <t>Repeat steps from  TC_MyInfo_014</t>
   </si>
   <si>
     <t>Successfully saved
 Multiple Dependants Details should be appeared under Assigned Dependents table.</t>
-  </si>
-  <si>
-    <t>TC_MyInfo_016</t>
   </si>
   <si>
     <t>ESS user can delete Dependants</t>
@@ -493,14 +442,87 @@
 Clarificatin Required on SSN NO.( Not visible on MyInfo--&gt;Personal details page)</t>
   </si>
   <si>
-    <t>Harsh@123/abcd</t>
+    <t>TC_01</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>TC_09</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t>Orange HRM</t>
+  </si>
+  <si>
+    <t>Username : Admin
+Password : admin123</t>
+  </si>
+  <si>
+    <t>Username : Admin
+Password : admin123123</t>
+  </si>
+  <si>
+    <t>Username : mina
+Password : admin123</t>
+  </si>
+  <si>
+    <t>Username : Admin
+Password : 12345</t>
+  </si>
+  <si>
+    <t>Repeat steps from  TC_14</t>
+  </si>
+  <si>
+    <t>TC ID</t>
+  </si>
+  <si>
+    <t>Req ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,8 +575,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -609,6 +637,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -638,7 +672,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -673,41 +707,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1132,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8314C97F-BF27-4FA3-8A3F-81D675E1385B}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1154,35 +1191,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>8</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -1192,527 +1229,530 @@
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="F2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="G2" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="I2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2" s="15" t="s">
+      <c r="F3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="G3" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="168" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="J9" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="14" t="s">
+      <c r="H10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="14" t="s">
+      <c r="D11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="171.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="C12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="78" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="156" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="78" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="168" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="171.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="B17" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="78" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="D17" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="14" t="s">
+      <c r="E17" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="F17" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="G17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="156" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="14" t="s">
+      <c r="I17" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J17" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="78" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>110</v>
-      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="22"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{AB9C82C1-0020-4872-87E5-0C82D4DF3698}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{D2FA3C65-B5BA-4C2C-8F3C-E4A3C14F7D61}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{B41A4026-180F-4930-A687-4BDBC56F769C}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{46FB5289-D467-477B-B2BA-44DF787534FE}"/>
+    <hyperlink ref="G2" r:id="rId1" display="Harsh@123/abcd" xr:uid="{AB9C82C1-0020-4872-87E5-0C82D4DF3698}"/>
+    <hyperlink ref="G3" r:id="rId2" display="Harsh@123/abcd" xr:uid="{D2FA3C65-B5BA-4C2C-8F3C-E4A3C14F7D61}"/>
+    <hyperlink ref="G4:G5" r:id="rId3" display="Harsh@123/abcd" xr:uid="{1D6971C2-4CDE-4895-8C64-3B72F347172C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -1720,8 +1760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9509156E-2F37-4464-AD6C-58CBA71985EE}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="C1" zoomScale="77" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1744,146 +1784,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="A1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="G2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="J2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="L2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="N2" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:14" ht="156" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="N4" s="6"/>
     </row>
